--- a/media/salary_files/謝鎮名_IT0002_薪資條.xlsx
+++ b/media/salary_files/謝鎮名_IT0002_薪資條.xlsx
@@ -1048,26 +1048,50 @@
       <c r="F5" s="45" t="n"/>
     </row>
     <row r="6" ht="16.2" customHeight="1" s="40">
-      <c r="A6" s="3" t="inlineStr"/>
-      <c r="B6" s="46" t="inlineStr"/>
-      <c r="C6" s="23" t="inlineStr"/>
-      <c r="D6" s="47" t="inlineStr"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>基本薪資</t>
+        </is>
+      </c>
+      <c r="B6" s="46" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C6" s="23" t="inlineStr">
+        <is>
+          <t>勞保</t>
+        </is>
+      </c>
+      <c r="D6" s="47" t="n">
+        <v>662</v>
+      </c>
       <c r="E6" s="48" t="inlineStr"/>
       <c r="F6" s="49" t="n"/>
     </row>
     <row r="7" ht="16.2" customHeight="1" s="40">
       <c r="A7" s="7" t="n"/>
       <c r="B7" s="50" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="50" t="n"/>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>健保</t>
+        </is>
+      </c>
+      <c r="D7" s="50" t="n">
+        <v>428</v>
+      </c>
       <c r="E7" s="51" t="n"/>
       <c r="F7" s="52" t="n"/>
     </row>
     <row r="8" ht="16.2" customHeight="1" s="40">
       <c r="A8" s="7" t="n"/>
       <c r="B8" s="50" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="50" t="n"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>勞退</t>
+        </is>
+      </c>
+      <c r="D8" s="50" t="n">
+        <v>1800</v>
+      </c>
       <c r="E8" s="51" t="n"/>
       <c r="F8" s="52" t="n"/>
     </row>
@@ -1190,7 +1214,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1198,7 +1222,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>0</v>
+        <v>2890</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1206,7 +1230,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>0</v>
+        <v>27110</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/謝鎮名_IT0002_薪資條.xlsx
+++ b/media/salary_files/謝鎮名_IT0002_薪資條.xlsx
@@ -953,15 +953,15 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16.33203125" customWidth="1" style="40" min="1" max="1"/>
     <col width="13" customWidth="1" style="40" min="2" max="2"/>
-    <col width="18.44140625" customWidth="1" style="40" min="3" max="3"/>
+    <col width="21" customWidth="1" style="40" min="3" max="3"/>
     <col width="15.44140625" bestFit="1" customWidth="1" style="40" min="4" max="4"/>
     <col width="10.21875" customWidth="1" style="40" min="5" max="5"/>
     <col width="14.5546875" customWidth="1" style="40" min="6" max="6"/>
